--- a/service-system/src/main/resources/static/构造深度-3车道.xlsx
+++ b/service-system/src/main/resources/static/构造深度-3车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC3B4C0-96F8-49B5-B9D7-C6C2B1D5B9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71CC3A-B991-476A-BD42-122070D280BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -457,6 +457,15 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,14 +475,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -487,20 +493,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -832,134 +832,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1400,12 +1400,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1424,11 +1424,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,11 +1447,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1470,11 +1470,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1493,11 +1493,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1516,11 +1516,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1539,15 +1539,27 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -1564,18 +1576,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1613,134 +1613,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2181,12 +2181,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2205,11 +2205,11 @@
       <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2228,11 +2228,11 @@
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2251,11 +2251,11 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2274,11 +2274,11 @@
       <c r="M31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2297,11 +2297,11 @@
       <c r="M32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2320,15 +2320,27 @@
       <c r="M33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -2345,26 +2357,13 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2377,7 +2376,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2394,134 +2393,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2530,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2541,7 +2540,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2551,7 +2550,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2962,12 +2961,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2986,11 +2985,11 @@
       <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3009,11 +3008,11 @@
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,11 +3031,11 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3055,11 +3054,11 @@
       <c r="M31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3078,11 +3077,11 @@
       <c r="M32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3101,15 +3100,27 @@
       <c r="M33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -3126,26 +3137,13 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3158,7 +3156,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3175,134 +3173,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3312,7 +3310,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3320,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3330,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3743,12 +3741,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3767,11 +3765,11 @@
       <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3790,11 +3788,11 @@
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3813,11 +3811,11 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3836,11 +3834,11 @@
       <c r="M31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3859,11 +3857,11 @@
       <c r="M32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3882,15 +3880,29 @@
       <c r="M33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="A2:B2"/>
@@ -3905,28 +3917,13 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3939,7 +3936,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3956,134 +3953,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4103,7 +4100,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4113,7 +4110,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4524,12 +4521,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4548,11 +4545,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,11 +4568,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4594,11 +4591,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,11 +4614,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4640,11 +4637,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4663,15 +4660,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -4681,29 +4697,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4712,7 +4713,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4729,134 +4730,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4866,7 +4867,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +4877,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4886,7 +4887,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5297,12 +5298,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5321,11 +5322,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5344,11 +5345,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5367,11 +5368,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5390,11 +5391,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5413,11 +5414,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5436,15 +5437,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -5454,29 +5474,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5485,7 +5490,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5502,134 +5507,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5639,7 +5644,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5654,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5659,7 +5664,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6070,12 +6075,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6094,11 +6099,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6117,11 +6122,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6140,11 +6145,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6163,11 +6168,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6186,11 +6191,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6209,15 +6214,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -6227,29 +6251,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6258,7 +6267,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6275,134 +6284,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6412,7 +6421,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6422,7 +6431,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6432,7 +6441,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6843,12 +6852,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6867,11 +6876,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6890,11 +6899,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6913,11 +6922,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6936,11 +6945,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,11 +6968,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6982,15 +6991,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -7000,29 +7028,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7031,7 +7044,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7048,134 +7061,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7185,7 +7198,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7195,7 +7208,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7205,7 +7218,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7616,12 +7629,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7640,11 +7653,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7663,11 +7676,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7686,11 +7699,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7709,11 +7722,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7732,11 +7745,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7755,15 +7768,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -7773,29 +7805,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7803,8 +7820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB0547-DB82-40C1-B3A5-41A30860D6E2}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7821,134 +7838,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7958,7 +7975,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7968,7 +7985,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7978,7 +7995,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -8389,12 +8406,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8413,11 +8430,11 @@
       <c r="M28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8436,11 +8453,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8459,11 +8476,11 @@
       <c r="M30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8482,11 +8499,11 @@
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8505,11 +8522,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8528,15 +8545,34 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -8546,29 +8582,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
+ </oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8597,134 +8618,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -8734,7 +8755,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -8744,7 +8765,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -8754,7 +8775,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -9165,12 +9186,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9189,11 +9210,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9212,11 +9233,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9235,11 +9256,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9258,11 +9279,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9281,11 +9302,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9304,15 +9325,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -9329,18 +9362,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9378,134 +9399,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -9515,7 +9536,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -9525,7 +9546,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -9535,7 +9556,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -9946,12 +9967,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9970,11 +9991,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9993,11 +10014,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10016,11 +10037,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10039,11 +10060,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10062,11 +10083,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10085,15 +10106,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -10110,18 +10143,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -10159,134 +10180,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10296,7 +10317,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10306,7 +10327,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10316,7 +10337,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10727,12 +10748,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10751,11 +10772,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10774,11 +10795,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10797,11 +10818,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10820,11 +10841,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10843,11 +10864,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10866,15 +10887,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -10891,18 +10924,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -10940,134 +10961,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11077,7 +11098,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11087,7 +11108,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11097,7 +11118,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11508,12 +11529,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11532,11 +11553,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11555,11 +11576,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11578,11 +11599,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11601,11 +11622,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11624,11 +11645,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11647,15 +11668,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -11672,18 +11705,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -11721,134 +11742,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11858,7 +11879,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11868,7 +11889,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11878,7 +11899,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -12289,12 +12310,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12313,11 +12334,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12336,11 +12357,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12359,11 +12380,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12382,11 +12403,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12405,11 +12426,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12428,15 +12449,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -12453,18 +12486,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -12485,7 +12506,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12502,134 +12523,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -12639,7 +12660,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -12649,7 +12670,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -12659,7 +12680,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13070,12 +13091,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13094,11 +13115,11 @@
       <c r="M28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13117,11 +13138,11 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13140,11 +13161,11 @@
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13163,11 +13184,11 @@
       <c r="M31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13186,11 +13207,11 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13209,15 +13230,27 @@
       <c r="M33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -13234,26 +13267,13 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13265,8 +13285,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13283,134 +13303,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13420,7 +13440,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13430,7 +13450,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13440,7 +13460,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13851,12 +13871,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13875,11 +13895,11 @@
       <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13898,11 +13918,11 @@
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13921,11 +13941,11 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13944,11 +13964,11 @@
       <c r="M31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13967,11 +13987,11 @@
       <c r="M32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13990,15 +14010,27 @@
       <c r="M33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -14015,26 +14047,13 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14047,7 +14066,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14064,134 +14083,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -14201,7 +14220,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
@@ -14211,7 +14230,7 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -14221,7 +14240,7 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="3" t="s">
         <v>1</v>
       </c>
@@ -14632,12 +14651,12 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14656,11 +14675,11 @@
       <c r="M28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14679,11 +14698,11 @@
       <c r="M29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14702,11 +14721,11 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14725,11 +14744,11 @@
       <c r="M31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14748,11 +14767,11 @@
       <c r="M32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14771,15 +14790,27 @@
       <c r="M33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -14796,26 +14827,13 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页
+    <oddHeader xml:space="preserve">&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页
  </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                          复核：         </oddFooter>
   </headerFooter>
 </worksheet>
 </file>